--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 11:45:23</t>
   </si>
   <si>
+    <t>2016-01-08 11:46:25</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 11:45:37</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:46:46</t>
   </si>
   <si>
     <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId2"/>
     <hyperlink ref="C2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId2"/>
     <hyperlink ref="C2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -70,18 +70,24 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:47:29</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:48:18</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:45:23</t>
   </si>
   <si>
     <t>2016-01-08 11:46:25</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -91,13 +97,19 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:47:42</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:48:39</t>
+  </si>
+  <si>
+    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:45:37</t>
   </si>
   <si>
     <t>2016-01-08 11:46:46</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -364,7 +376,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -378,13 +390,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -462,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -488,19 +500,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -514,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Handed back</t>
   </si>
   <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,24 +67,15 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:47:29</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:48:18</t>
+    <t>2016-01-08 11:49:20</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:50:08</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:45:23</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:46:25</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:47:42</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:48:39</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:45:37</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:46:46</t>
+    <t>2016-01-08 11:49:33</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:50:29</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId4"/>
     <hyperlink ref="F2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="175b4d79-3667-47f9-a108-49103b0a3086.md" r:id="rId4"/>
     <hyperlink ref="F2" display="175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 12:04:54</t>
+    <t>2016-01-08 12:05:51</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 12:05:09</t>
+    <t>2016-01-08 12:06:05</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>1ae56482-212d-48d6-b20a-a338c7c3b051.md</t>
+    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>d482a737-33ce-4a44-8731-1388e99258a8.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:05:51</t>
+    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:06:53</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:06:05</t>
+    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:07:06</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ae56482-212d-48d6-b20a-a338c7c3b051.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ae56482-212d-48d6-b20a-a338c7c3b051.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ae56482-212d-48d6-b20a-a338c7c3b051.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1ae56482-212d-48d6-b20a-a338c7c3b051.ae8c8329ad593b1dbc1e446bca74c47cffa4f67a.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md</t>
+    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>d482a737-33ce-4a44-8731-1388e99258a8.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:06:53</t>
+    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:07:55</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:07:06</t>
+    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:08:09</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dfed2ff0-0c8a-4795-8f89-04c3a8a66ec0.94c5fc70554ab16089ed18696ace32ea269504c4.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d482a737-33ce-4a44-8731-1388e99258a8.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 12:07:55</t>
+    <t>2016-01-08 12:08:53</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 12:08:09</t>
+    <t>2016-01-08 12:09:07</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>a7db943c-e265-4a52-b400-7be6b592f3d5.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:08:53</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:09:07</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9e3cc3a9-430b-4a7b-98f3-43d1e4d708bc.8cabcc3d17f9b8490167c021781d42154f59c8ff.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a7db943c-e265-4a52-b400-7be6b592f3d5.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:11:51</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:12:05</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a7db943c-e265-4a52-b400-7be6b592f3d5.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:11:51</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:12:05</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a7db943c-e265-4a52-b400-7be6b592f3d5.f86aaf9df1a55da1992cd8a7618fb21db2b21691.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>bd85f4e3-4daf-4bd3-a1ec-e11c99743c27.a0999127ecd9dfb07bd00064d87f1865fb0b60a5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:14:55</t>
+    <t>2016-01-08 13:15:59</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>bd85f4e3-4daf-4bd3-a1ec-e11c99743c27.a0999127ecd9dfb07bd00064d87f1865fb0b60a5.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:15:15</t>
+    <t>2016-01-08 13:16:13</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 13:31:17</t>
   </si>
   <si>
+    <t>2016-01-08 13:32:16</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 13:31:30</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:32:38</t>
   </si>
   <si>
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -82,6 +82,12 @@
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 13:33:22</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:34:12</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:33:35</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:34:33</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -364,7 +376,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -378,13 +390,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -462,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -488,19 +500,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -514,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.md</t>
+    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.md</t>
   </si>
   <si>
     <t>Handed back</t>
   </si>
   <si>
-    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,49 +64,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:31:17</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:32:16</t>
+    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:35:13</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:36:00</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:33:22</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:34:12</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:31:30</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:32:38</t>
-  </si>
-  <si>
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:33:35</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:34:33</t>
+    <t>2016-01-08 13:35:26</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:36:22</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,55 +328,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,55 +434,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>065ea814-e362-477e-a32b-be31784bb5f4.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>624139d6-1c5a-4773-bd38-ed114408959a.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 13:49:05</t>
   </si>
   <si>
+    <t>2016-01-08 13:50:07</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 13:49:19</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:50:29</t>
   </si>
   <si>
     <t>624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="065ea814-e362-477e-a32b-be31784bb5f4.md" r:id="rId2"/>
     <hyperlink ref="C2" display="065ea814-e362-477e-a32b-be31784bb5f4.c845805315c661c3ee60795a3e1d1ab6e19bb7d8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="065ea814-e362-477e-a32b-be31784bb5f4.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="065ea814-e362-477e-a32b-be31784bb5f4.c845805315c661c3ee60795a3e1d1ab6e19bb7d8.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="065ea814-e362-477e-a32b-be31784bb5f4.md" r:id="rId2"/>
     <hyperlink ref="C2" display="065ea814-e362-477e-a32b-be31784bb5f4.c845805315c661c3ee60795a3e1d1ab6e19bb7d8.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="065ea814-e362-477e-a32b-be31784bb5f4.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="065ea814-e362-477e-a32b-be31784bb5f4.c845805315c661c3ee60795a3e1d1ab6e19bb7d8.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="624139d6-1c5a-4773-bd38-ed114408959a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="624139d6-1c5a-4773-bd38-ed114408959a.f1b8582d8cf3249dea265284f69f844dc8ef5112.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 14:15:37</t>
   </si>
   <si>
+    <t>2016-01-08 14:16:39</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 14:15:51</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:17:01</t>
   </si>
   <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId2"/>
     <hyperlink ref="C2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId2"/>
     <hyperlink ref="C2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.md</t>
   </si>
   <si>
+    <t>Not yet handed off</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:17:44</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:17:59</t>
   </si>
 </sst>
 </file>
@@ -240,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
     <t>2016-01-08 14:17:44</t>
   </si>
   <si>
+    <t>2016-01-08 14:18:47</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2016-01-08 14:17:59</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:19:09</t>
   </si>
 </sst>
 </file>
@@ -249,21 +252,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.md</t>
-  </si>
-  <si>
-    <t>Handed back</t>
-  </si>
-  <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.md</t>
   </si>
   <si>
+    <t>Not yet handed off</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,46 +64,28 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:15:37</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:16:39</t>
+    <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:19:46</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:18:47</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:17:44</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:18:47</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:15:51</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:17:01</t>
-  </si>
-  <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:17:59</t>
+    <t>2016-01-08 14:20:00</t>
   </si>
   <si>
     <t>2016-01-08 14:19:09</t>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,55 +328,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,55 +434,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="5fe91086-255c-4682-9774-a18afabf88ac.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-08 14:19:46</t>
   </si>
   <si>
-    <t>2016-01-08 14:18:47</t>
+    <t>2016-01-08 14:20:34</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-08 14:20:00</t>
   </si>
   <si>
-    <t>2016-01-08 14:19:09</t>
+    <t>2016-01-08 14:20:56</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 14:26:31</t>
   </si>
   <si>
+    <t>2016-01-08 14:27:33</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 14:26:45</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:27:56</t>
   </si>
   <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
     <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
     <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:26:31</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:27:33</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:26:31</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:27:33</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
+    <t>2016-01-08 14:28:38</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:26:45</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:27:56</t>
+  </si>
+  <si>
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:26:45</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:27:56</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
+    <t>2016-01-08 14:28:52</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:28:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:29:29</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-08 14:27:33</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:28:38</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:28:52</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:29:52</t>
+  </si>
+  <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-08 14:27:56</t>
-  </si>
-  <si>
-    <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:28:52</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:28:38</t>
+    <t>2016-01-08 14:30:46</t>
   </si>
   <si>
     <t>2016-01-08 14:29:29</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:26:31</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:27:33</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:28:52</t>
+    <t>2016-01-08 14:31:00</t>
   </si>
   <si>
     <t>2016-01-08 14:29:52</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:26:45</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:27:56</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-08 14:30:46</t>
   </si>
   <si>
-    <t>2016-01-08 14:29:29</t>
+    <t>2016-01-08 14:31:54</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-08 14:31:00</t>
   </si>
   <si>
-    <t>2016-01-08 14:29:52</t>
+    <t>2016-01-08 14:32:16</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:46:33</t>
+    <t>2016-01-08 14:47:30</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:46:50</t>
+    <t>2016-01-08 14:47:43</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>5661976b-cf63-4e48-82ef-a4a4f850f34c.md</t>
+    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:47:30</t>
+    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:48:20</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:47:43</t>
+    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:48:34</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5661976b-cf63-4e48-82ef-a4a4f850f34c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5661976b-cf63-4e48-82ef-a4a4f850f34c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5661976b-cf63-4e48-82ef-a4a4f850f34c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="5661976b-cf63-4e48-82ef-a4a4f850f34c.02e4a1b536a48ad11c7556c4d262cbde532024c3.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.md</t>
+    <t>94881592-d16f-4818-a514-0e72c6c88ad8.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:48:20</t>
+    <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:49:12</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:48:34</t>
+    <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:49:26</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9b7c72f4-0680-49fc-82db-c9ff185fce14.e60510d314686f4c2c892b9240e0422ca090f5a9.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="8bf6ccdf-ad48-4cf9-a358-992f610c9b85.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:49:12</t>
+    <t>2016-01-08 14:50:12</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:49:26</t>
+    <t>2016-01-08 14:50:25</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:50:12</t>
+    <t>2016-01-08 14:51:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:50:25</t>
+    <t>2016-01-08 14:51:32</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>94881592-d16f-4818-a514-0e72c6c88ad8.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:51:11</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:51:32</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="94881592-d16f-4818-a514-0e72c6c88ad8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="94881592-d16f-4818-a514-0e72c6c88ad8.add684ab223b83648bfc9fd15f9735620d7a49ef.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:53:28</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:53:42</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:53:28</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:53:42</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="22cb96f6-bddf-4d90-b60e-c0e52b6f4bf7.6dec47758dcd162a0333e842f0647c0269c4c04f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:05:41</t>
+    <t>2016-01-08 15:06:35</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:05:56</t>
+    <t>2016-01-08 15:06:49</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>b3bea00a-d71f-490e-a515-aee0e91a7f98.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-08 15:06:35</t>
   </si>
   <si>
+    <t>2016-01-08 15:08:44</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-08 15:06:49</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:09:07</t>
   </si>
 </sst>
 </file>
@@ -304,6 +310,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -319,20 +331,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.md" r:id="rId2"/>
     <hyperlink ref="C2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="E2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -397,13 +411,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -417,20 +437,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.md" r:id="rId2"/>
     <hyperlink ref="C2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="E2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="b3bea00a-d71f-490e-a515-aee0e91a7f98.3d9bee042f38885cc9d3a056ecd147b35e867d8b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>9b75ba4c-b9d8-4ac2-8992-c2a532dbed07.2da60d4118192c66887ed26a5da3f131f26f9fa3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:11:56</t>
+    <t>2016-01-08 15:12:48</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>9b75ba4c-b9d8-4ac2-8992-c2a532dbed07.2da60d4118192c66887ed26a5da3f131f26f9fa3.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:12:12</t>
+    <t>2016-01-08 15:13:04</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1040d3c8-b286-49fe-b84b-360af021cc04.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 15:23:40</t>
   </si>
   <si>
+    <t>2016-01-08 15:24:44</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 15:23:55</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:25:08</t>
   </si>
   <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.md</t>
   </si>
   <si>
+    <t>Not yet handed off</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 15:25:50</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:26:05</t>
   </si>
 </sst>
 </file>
@@ -240,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
     <t>2016-01-08 15:25:50</t>
   </si>
   <si>
+    <t>2016-01-08 15:26:54</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2016-01-08 15:26:05</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:27:17</t>
   </si>
 </sst>
 </file>
@@ -249,21 +252,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>1040d3c8-b286-49fe-b84b-360af021cc04.md</t>
-  </si>
-  <si>
-    <t>Handed back</t>
-  </si>
-  <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.md</t>
   </si>
   <si>
+    <t>Not yet handed off</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,46 +64,28 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:23:40</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:24:44</t>
+    <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:27:54</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:26:54</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:25:50</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:26:54</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:23:55</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:25:08</t>
-  </si>
-  <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:26:05</t>
+    <t>2016-01-08 15:28:08</t>
   </si>
   <si>
     <t>2016-01-08 15:27:17</t>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,55 +328,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,55 +434,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1040d3c8-b286-49fe-b84b-360af021cc04.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-08 15:27:54</t>
   </si>
   <si>
-    <t>2016-01-08 15:26:54</t>
+    <t>2016-01-08 15:28:43</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-08 15:28:08</t>
   </si>
   <si>
-    <t>2016-01-08 15:27:17</t>
+    <t>2016-01-08 15:29:07</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:43:53</t>
+    <t>2016-01-08 15:44:52</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:44:09</t>
+    <t>2016-01-08 15:45:07</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>2e3a0a07-1eab-4378-81c7-706e4aca6dc5.md</t>
+    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>55f27676-df51-4893-a5c3-80b71f5fab21.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:44:52</t>
+    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:45:55</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:45:07</t>
+    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:46:11</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2e3a0a07-1eab-4378-81c7-706e4aca6dc5.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2e3a0a07-1eab-4378-81c7-706e4aca6dc5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2e3a0a07-1eab-4378-81c7-706e4aca6dc5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2e3a0a07-1eab-4378-81c7-706e4aca6dc5.d50faa4da629f3a3689056f59b87cbd5621ac302.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md</t>
+    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>55f27676-df51-4893-a5c3-80b71f5fab21.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:45:55</t>
+    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:46:58</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:46:11</t>
+    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:47:13</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="190c0f8a-2aa5-4f77-8caf-e44bc19e3c7f.06f7a964070a18f7a86a6c1306093ad89331d3af.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="55f27676-df51-4893-a5c3-80b71f5fab21.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:46:58</t>
+    <t>2016-01-08 15:47:58</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:47:13</t>
+    <t>2016-01-08 15:48:12</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:47:58</t>
+    <t>2016-01-08 15:48:57</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:48:12</t>
+    <t>2016-01-08 15:49:12</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:48:57</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:49:12</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="794bc2c8-8943-4405-bccf-8838a86cdc62.26bc085207e18ad69f00b3ddd233918c1e937c76.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:51:14</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:51:30</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:51:14</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:51:30</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="aa6ca3cb-c3ce-4575-8446-36a6625c758e.6ac4514a0b709804427a9b1ad8ec912cc1876bb2.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-11 02:39:32</t>
   </si>
   <si>
+    <t>2016-01-11 02:40:36</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-11 02:39:49</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:41:04</t>
   </si>
   <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
     <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
     <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:39:32</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:40:36</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:39:32</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:40:36</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
+    <t>2016-01-11 02:41:55</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:39:49</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:41:04</t>
+  </si>
+  <si>
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:39:49</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:41:04</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
+    <t>2016-01-11 02:42:11</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:41:55</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:43:05</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-11 02:40:36</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:41:55</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:42:11</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:43:29</t>
+  </si>
+  <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-11 02:41:04</t>
-  </si>
-  <si>
-    <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:42:11</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:41:55</t>
+    <t>2016-01-11 02:44:19</t>
   </si>
   <si>
     <t>2016-01-11 02:43:05</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:39:32</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:40:36</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:42:11</t>
+    <t>2016-01-11 02:44:33</t>
   </si>
   <si>
     <t>2016-01-11 02:43:29</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:39:49</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:41:04</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
     <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.md" r:id="rId4"/>
     <hyperlink ref="F2" display="84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e8b00593-0154-4cac-b80a-6b226cc19621.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-11 02:44:19</t>
   </si>
   <si>
-    <t>2016-01-11 02:43:05</t>
+    <t>2016-01-11 02:45:09</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-11 02:44:33</t>
   </si>
   <si>
-    <t>2016-01-11 02:43:29</t>
+    <t>2016-01-11 02:45:32</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-11 02:58:02</t>
   </si>
   <si>
+    <t>2016-01-11 02:59:06</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-11 02:58:18</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:59:33</t>
   </si>
   <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
     <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
     <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:58:02</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:59:06</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:58:02</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:59:06</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
+    <t>2016-01-11 03:00:27</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:58:18</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:59:33</t>
+  </si>
+  <si>
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:58:18</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:59:33</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
+    <t>2016-01-11 03:00:43</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:00:27</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:01:36</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-11 02:59:06</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:00:27</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:00:43</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:02:00</t>
+  </si>
+  <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-11 02:59:33</t>
-  </si>
-  <si>
-    <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:00:43</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:00:27</t>
+    <t>2016-01-11 03:02:54</t>
   </si>
   <si>
     <t>2016-01-11 03:01:36</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:58:02</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:59:06</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:00:43</t>
+    <t>2016-01-11 03:03:10</t>
   </si>
   <si>
     <t>2016-01-11 03:02:00</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:58:18</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:59:33</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="14a3b362-714d-4008-932b-2d15393f2e8c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-11 03:02:54</t>
   </si>
   <si>
-    <t>2016-01-11 03:01:36</t>
+    <t>2016-01-11 03:04:00</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-11 03:03:10</t>
   </si>
   <si>
-    <t>2016-01-11 03:02:00</t>
+    <t>2016-01-11 03:04:28</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:20:59</t>
+    <t>2016-01-11 03:22:05</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:21:15</t>
+    <t>2016-01-11 03:22:22</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>9b75be1d-03c0-4178-823f-9885773f5ee1.md</t>
+    <t>7f4533f2-41af-4083-aeaf-57f75932345a.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:22:05</t>
+    <t>7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:23:15</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:22:22</t>
+    <t>7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:23:31</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b75be1d-03c0-4178-823f-9885773f5ee1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b75be1d-03c0-4178-823f-9885773f5ee1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9b75be1d-03c0-4178-823f-9885773f5ee1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9b75be1d-03c0-4178-823f-9885773f5ee1.e55d3901299cfb522614a0c17389f5f2f3d3a799.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>7f4533f2-41af-4083-aeaf-57f75932345a.md</t>
+    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:23:15</t>
+    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:24:28</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:23:31</t>
+    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:24:49</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7f4533f2-41af-4083-aeaf-57f75932345a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="7f4533f2-41af-4083-aeaf-57f75932345a.8995df78cfd783cc48509ad836dd4eaf705e7719.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="6f4d5cb9-d189-4dc5-b965-ef6ac3bcd797.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:24:28</t>
+    <t>2016-01-11 03:25:40</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:24:49</t>
+    <t>2016-01-11 03:25:58</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:25:40</t>
+    <t>2016-01-11 03:26:45</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:25:58</t>
+    <t>2016-01-11 03:27:01</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:26:45</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:27:01</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="27b614dc-0e40-4ea4-b7cd-308a7b2554ce.c271c7b73e25149d7cfe55754447769e5722b109.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:29:05</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:29:21</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:29:05</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:29:21</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1f5eeef4-23f6-43cc-b531-a6f094206bcb.77b07f7431702b20fa613b003e585b02ef206db6.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-11 03:39:51</t>
   </si>
   <si>
+    <t>2016-01-11 03:41:02</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-11 03:40:08</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:41:29</t>
   </si>
   <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:39:51</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:41:02</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:39:51</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:41:02</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
+    <t>2016-01-11 03:42:29</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:40:08</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:41:29</t>
+  </si>
+  <si>
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:40:08</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:41:29</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
+    <t>2016-01-11 03:42:48</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
+  </si>
+  <si>
+    <t>Handed back</t>
+  </si>
+  <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:42:29</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:43:34</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-11 03:41:02</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:42:29</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:42:48</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:44:01</t>
+  </si>
+  <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-11 03:41:29</t>
-  </si>
-  <si>
-    <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:42:48</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
   </si>
   <si>
-    <t>Handed back</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:42:29</t>
+    <t>2016-01-11 03:44:53</t>
   </si>
   <si>
     <t>2016-01-11 03:43:34</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:39:51</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:41:02</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:42:48</t>
+    <t>2016-01-11 03:45:17</t>
   </si>
   <si>
     <t>2016-01-11 03:44:01</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:40:08</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:41:29</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/xinjiang/localization-status.xlsx
+++ b/ol-handback/oltest/xinjiang/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-11 03:44:53</t>
   </si>
   <si>
-    <t>2016-01-11 03:43:34</t>
+    <t>2016-01-11 03:46:17</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-11 03:45:17</t>
   </si>
   <si>
-    <t>2016-01-11 03:44:01</t>
+    <t>2016-01-11 03:46:54</t>
   </si>
 </sst>
 </file>
